--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>-10.22452286878376</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.54539908331062</v>
+        <v>-17.48171976886906</v>
       </c>
       <c r="F2" t="n">
-        <v>3.665258979381</v>
+        <v>3.264790648898262</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.472851837914735</v>
+        <v>-9.267552661559241</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.880839364687761</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.17893614915293</v>
+        <v>-18.06341869490146</v>
       </c>
       <c r="F3" t="n">
-        <v>3.56884287495857</v>
+        <v>3.146960694398745</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.307921191259359</v>
+        <v>-9.144647917931866</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.539905224237813</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.59697068130849</v>
+        <v>-18.49409619881487</v>
       </c>
       <c r="F4" t="n">
-        <v>3.795907909885568</v>
+        <v>3.392242168911868</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.265430832579002</v>
+        <v>-9.117782825198169</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.238724310590236</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.39987761204133</v>
+        <v>-19.24482764826399</v>
       </c>
       <c r="F5" t="n">
-        <v>4.045970833114533</v>
+        <v>3.638780118189788</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.155271729853673</v>
+        <v>-9.031447852935319</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.967243380867801</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.98247122633039</v>
+        <v>-19.81738413145527</v>
       </c>
       <c r="F6" t="n">
-        <v>4.137615266834854</v>
+        <v>3.729383193447456</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.564586809199875</v>
+        <v>-8.509345920610604</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.732060034657151</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.67445148025979</v>
+        <v>-20.49874546246973</v>
       </c>
       <c r="F7" t="n">
-        <v>4.281078284337607</v>
+        <v>3.862295734131406</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.397553889591727</v>
+        <v>-8.33192386141026</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.528741313438797</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.20808169077669</v>
+        <v>-21.04849961763372</v>
       </c>
       <c r="F8" t="n">
-        <v>4.411864107034448</v>
+        <v>4.029265096650285</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.058530597412377</v>
+        <v>-8.044851156198749</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.3571875326637</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.69878153199521</v>
+        <v>-21.53124993368664</v>
       </c>
       <c r="F9" t="n">
-        <v>4.534011054597451</v>
+        <v>4.166025285738497</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.385170035197831</v>
+        <v>-8.359121406610909</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.213658902795581</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.38568210778989</v>
+        <v>-22.19556818676304</v>
       </c>
       <c r="F10" t="n">
-        <v>4.922784880654528</v>
+        <v>4.544996653027409</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.137962291979145</v>
+        <v>-8.10118718232621</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.09030423741269</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.24191343642018</v>
+        <v>-23.06088817915892</v>
       </c>
       <c r="F11" t="n">
-        <v>5.089177340363111</v>
+        <v>4.72261427250243</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.695062270898452</v>
+        <v>-7.69024659913454</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.982977566242163</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.0156378851644</v>
+        <v>-23.82242433378392</v>
       </c>
       <c r="F12" t="n">
-        <v>5.415352322496209</v>
+        <v>5.075175224696267</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.132606475894222</v>
+        <v>-7.151966943087205</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.877551777286352</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.56566093570607</v>
+        <v>-24.39739109736059</v>
       </c>
       <c r="F13" t="n">
-        <v>6.192929308651564</v>
+        <v>5.850708605981251</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.865656922946932</v>
+        <v>-6.87729275929019</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.76950212792571</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.73874391037424</v>
+        <v>-25.56632330519875</v>
       </c>
       <c r="F14" t="n">
-        <v>6.331019307607576</v>
+        <v>6.011723158136228</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.355870398919977</v>
+        <v>-6.361517201851263</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.644218622123703</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.11876641413954</v>
+        <v>-25.97262422087372</v>
       </c>
       <c r="F15" t="n">
-        <v>6.570776204361086</v>
+        <v>6.283815946307513</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.862002481251696</v>
+        <v>-5.845585196192595</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.495550651830063</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.13497582546901</v>
+        <v>-27.03666034187879</v>
       </c>
       <c r="F16" t="n">
-        <v>6.81904975107676</v>
+        <v>6.554691371768936</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.617879701366031</v>
+        <v>-5.556713336454059</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.312116514581762</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.98505189445385</v>
+        <v>-27.91587733629387</v>
       </c>
       <c r="F17" t="n">
-        <v>7.145151398106854</v>
+        <v>6.875600893506366</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.176993951114508</v>
+        <v>-5.126720293502022</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.089485022938931</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.54547141809801</v>
+        <v>-28.48047207180238</v>
       </c>
       <c r="F18" t="n">
-        <v>7.526093035163133</v>
+        <v>7.295742587621569</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.022628448298536</v>
+        <v>-4.947523524808989</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.824217607889342</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.48029597661738</v>
+        <v>-29.43845096684346</v>
       </c>
       <c r="F19" t="n">
-        <v>7.643262973735617</v>
+        <v>7.405901690346896</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.905883853323474</v>
+        <v>-4.770008574478174</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.520935767474022</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.92920214263408</v>
+        <v>-29.92040193027363</v>
       </c>
       <c r="F20" t="n">
-        <v>7.836867645665449</v>
+        <v>7.604669153528191</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.728613353336005</v>
+        <v>-4.615643071662201</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.18804659337777</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.76891596156449</v>
+        <v>-30.7546693955543</v>
       </c>
       <c r="F21" t="n">
-        <v>8.142591912074241</v>
+        <v>7.930413903057</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.646502483006168</v>
+        <v>-4.530633020260284</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.839175118111802</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.94185480146788</v>
+        <v>-30.94192569206745</v>
       </c>
       <c r="F22" t="n">
-        <v>8.18031060005249</v>
+        <v>7.926297359275058</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.867754488768404</v>
+        <v>-4.71269474697733</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.490579969991805</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.43123216632889</v>
+        <v>-31.44626586244466</v>
       </c>
       <c r="F23" t="n">
-        <v>8.219055979472792</v>
+        <v>7.984339648799072</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.682378015395591</v>
+        <v>-4.505043958318852</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.160040035564395</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.44906237437253</v>
+        <v>-31.47761906348218</v>
       </c>
       <c r="F24" t="n">
-        <v>8.596814873058708</v>
+        <v>8.343671875503587</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.868541618873977</v>
+        <v>-4.688895061549188</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.868819163857468</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.53354196852939</v>
+        <v>-31.5822022538758</v>
       </c>
       <c r="F25" t="n">
-        <v>8.547739022128617</v>
+        <v>8.29983215092796</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.690894665357756</v>
+        <v>-4.524409314518701</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.633875863988127</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.48362765292162</v>
+        <v>-31.53596691593538</v>
       </c>
       <c r="F26" t="n">
-        <v>8.185155605857602</v>
+        <v>7.940832376690396</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.719309573268266</v>
+        <v>-4.566973008302063</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.474374564288008</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.58989510618088</v>
+        <v>-31.64457620348389</v>
       </c>
       <c r="F27" t="n">
-        <v>8.395730020622496</v>
+        <v>8.10776262715434</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.492518322725815</v>
+        <v>-4.334505620787124</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.39897683868533</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.30306685131272</v>
+        <v>-31.33349114104553</v>
       </c>
       <c r="F28" t="n">
-        <v>8.378833612890439</v>
+        <v>8.093696954398226</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.720473156902592</v>
+        <v>-4.52274705218395</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.415855479159935</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.04850848626963</v>
+        <v>-31.10803947838462</v>
       </c>
       <c r="F29" t="n">
-        <v>8.224252993772321</v>
+        <v>7.888994236880496</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.628334933488713</v>
+        <v>-4.398375606496501</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.52056231954206</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.33542229875796</v>
+        <v>-31.37528481624735</v>
       </c>
       <c r="F30" t="n">
-        <v>7.838114342416512</v>
+        <v>7.51506832467824</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.869788315625041</v>
+        <v>-4.623230810319654</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.706829912062912</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.06784450842827</v>
+        <v>-31.09349957196241</v>
       </c>
       <c r="F31" t="n">
-        <v>7.88177806274493</v>
+        <v>7.540603607544137</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.805209423919961</v>
+        <v>-4.556789206998279</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.958380934166414</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.84451223024416</v>
+        <v>-30.91056026851275</v>
       </c>
       <c r="F32" t="n">
-        <v>7.768353103432503</v>
+        <v>7.403359406776101</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.995743799537371</v>
+        <v>-4.721098949781557</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.257599331543129</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.35748647768613</v>
+        <v>-30.40655988411279</v>
       </c>
       <c r="F33" t="n">
-        <v>7.832516429553895</v>
+        <v>7.437655789947509</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.911286205911415</v>
+        <v>-4.581092460133713</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.578852595801718</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.9950986216898</v>
+        <v>-30.03609049976544</v>
       </c>
       <c r="F34" t="n">
-        <v>7.809107864675106</v>
+        <v>7.419630021629193</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.996926939199164</v>
+        <v>-4.64553445964652</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.89839556327021</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.74959469736423</v>
+        <v>-29.76495351243664</v>
       </c>
       <c r="F35" t="n">
-        <v>7.912520137924091</v>
+        <v>7.491420198462973</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.908211020592126</v>
+        <v>-4.593134084046925</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.187321380383393</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.39445723855152</v>
+        <v>-29.40896292192566</v>
       </c>
       <c r="F36" t="n">
-        <v>7.994308333800711</v>
+        <v>7.572147479849472</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.102803271909075</v>
+        <v>-4.759443430638771</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.424431426763507</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.30578776550972</v>
+        <v>-29.29863514846343</v>
       </c>
       <c r="F37" t="n">
-        <v>8.171094822108355</v>
+        <v>7.703598207480215</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.148525264128462</v>
+        <v>-4.805473430290775</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.59028854683779</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.6765163581588</v>
+        <v>-28.64784233288434</v>
       </c>
       <c r="F38" t="n">
-        <v>7.916406898383288</v>
+        <v>7.481172840069918</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.133501346026433</v>
+        <v>-4.805282759022965</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.674941480276816</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.35311833192611</v>
+        <v>-28.2964425198214</v>
       </c>
       <c r="F39" t="n">
-        <v>7.801710797285463</v>
+        <v>7.370891512172919</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.237656748319189</v>
+        <v>-4.890097250150205</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.674991105785272</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.91673535699902</v>
+        <v>-27.85757348490248</v>
       </c>
       <c r="F40" t="n">
-        <v>7.847760352964936</v>
+        <v>7.422377643488399</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.082337889164168</v>
+        <v>-4.748418720153877</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.593825798153452</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.6887194102364</v>
+        <v>-27.63215115628276</v>
       </c>
       <c r="F41" t="n">
-        <v>7.620323753516052</v>
+        <v>7.210287636594762</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.596817859783362</v>
+        <v>-5.24258486724104</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.443409987517746</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.0362521098054</v>
+        <v>-26.98979187754911</v>
       </c>
       <c r="F42" t="n">
-        <v>7.527510847154539</v>
+        <v>7.106611356974964</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.307285984117792</v>
+        <v>-4.982719485243909</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.237118065845973</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.69139134342695</v>
+        <v>-26.61784112412109</v>
       </c>
       <c r="F43" t="n">
-        <v>7.542485875187899</v>
+        <v>7.095122190837714</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.429863164285083</v>
+        <v>-5.076666641198547</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.994512061596255</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.11882019321508</v>
+        <v>-26.02438902558061</v>
       </c>
       <c r="F44" t="n">
-        <v>7.639742888791439</v>
+        <v>7.203614142221423</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.529388677074871</v>
+        <v>-5.201155423050802</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.732407728669729</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.43330320636373</v>
+        <v>-25.3492856233558</v>
       </c>
       <c r="F45" t="n">
-        <v>7.70560270029565</v>
+        <v>7.264697394016658</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.582331732436693</v>
+        <v>-5.26537252824773</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.470346488197641</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.10607219874738</v>
+        <v>-25.01557668164078</v>
       </c>
       <c r="F46" t="n">
-        <v>7.530542031412026</v>
+        <v>7.095894653922686</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.473331324338824</v>
+        <v>-5.169802222013277</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.22255216283477</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.89124923701513</v>
+        <v>-24.80179996737806</v>
       </c>
       <c r="F47" t="n">
-        <v>7.625672327028457</v>
+        <v>7.218999846831605</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.366863421798017</v>
+        <v>-5.107164266034363</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.001985759338321</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.45993127320217</v>
+        <v>-24.36050354054972</v>
       </c>
       <c r="F48" t="n">
-        <v>7.605783847093847</v>
+        <v>7.19187563673396</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.321292988791503</v>
+        <v>-5.072276313032058</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.814377658627327</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.67168158505634</v>
+        <v>-23.57272319706311</v>
       </c>
       <c r="F49" t="n">
-        <v>7.88165094856639</v>
+        <v>7.448436050089057</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.422573655046514</v>
+        <v>-5.207887585506544</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.662269464833311</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.60111365993929</v>
+        <v>-23.49225503304056</v>
       </c>
       <c r="F50" t="n">
-        <v>7.617757024910921</v>
+        <v>7.200377619675526</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.438257589075577</v>
+        <v>-5.235011795604188</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.542839629350526</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.93361755239939</v>
+        <v>-22.8359840852671</v>
       </c>
       <c r="F51" t="n">
-        <v>7.682541254904412</v>
+        <v>7.293904321039609</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.260331962167941</v>
+        <v>-5.057785296678522</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.451100984694087</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.41891268746432</v>
+        <v>-22.3175733531269</v>
       </c>
       <c r="F52" t="n">
-        <v>7.525457464270435</v>
+        <v>7.13187774446318</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.448597838599102</v>
+        <v>-5.241279502407573</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.381064663106497</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.06511970554002</v>
+        <v>-21.94345676965684</v>
       </c>
       <c r="F53" t="n">
-        <v>7.889976927260746</v>
+        <v>7.522700064397495</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.383349152953254</v>
+        <v>-5.206063985945184</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.324959732267801</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.30456135228839</v>
+        <v>-21.20248377791408</v>
       </c>
       <c r="F54" t="n">
-        <v>7.835220050351299</v>
+        <v>7.460477674002268</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.397703277114517</v>
+        <v>-5.223771968817151</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.279896781065321</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.02849380153431</v>
+        <v>-20.92426506413855</v>
       </c>
       <c r="F55" t="n">
-        <v>7.625134536273096</v>
+        <v>7.297913306670479</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.541503636091086</v>
+        <v>-5.407906634445768</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.240560863889042</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.51345159512542</v>
+        <v>-20.40791749289619</v>
       </c>
       <c r="F56" t="n">
-        <v>7.5306935906249</v>
+        <v>7.183549658039604</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.585020686213497</v>
+        <v>-5.458194959078856</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.208467217036452</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.2243255070298</v>
+        <v>-20.13361976262793</v>
       </c>
       <c r="F57" t="n">
-        <v>7.442706134041032</v>
+        <v>7.129604356270065</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.821868623881191</v>
+        <v>-5.707353416037442</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.181918469072053</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.73011535888083</v>
+        <v>-19.650649441266</v>
       </c>
       <c r="F58" t="n">
-        <v>7.081159187225805</v>
+        <v>6.77623182893632</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.106496825659246</v>
+        <v>-5.995227918375128</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.164271099511787</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.2278627944358</v>
+        <v>-19.10161885911832</v>
       </c>
       <c r="F59" t="n">
-        <v>7.416686839495311</v>
+        <v>7.067895311595865</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.997608864719316</v>
+        <v>-5.880878936764854</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.156060928992782</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.8169711013128</v>
+        <v>-18.65575121086941</v>
       </c>
       <c r="F60" t="n">
-        <v>7.267449904882732</v>
+        <v>6.927590592529139</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.258080483567944</v>
+        <v>-6.134569503089071</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.160937530170239</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.52293156131593</v>
+        <v>-18.36479663420556</v>
       </c>
       <c r="F61" t="n">
-        <v>6.98242080454159</v>
+        <v>6.63637689850135</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.35220364376979</v>
+        <v>-6.219711557676395</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.179307433279456</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.17477071530232</v>
+        <v>-18.00668177021091</v>
       </c>
       <c r="F62" t="n">
-        <v>7.117743625610929</v>
+        <v>6.755790891225748</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.345940825973272</v>
+        <v>-6.234266131119201</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.213503639284912</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.61346383691181</v>
+        <v>-17.43281992218617</v>
       </c>
       <c r="F63" t="n">
-        <v>6.955721938041368</v>
+        <v>6.589926444258792</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.234471469407612</v>
+        <v>-6.106472380624911</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.260969116407465</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.61039842960626</v>
+        <v>-17.44770205908906</v>
       </c>
       <c r="F64" t="n">
-        <v>6.754329078172541</v>
+        <v>6.414748439210362</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.418332350651681</v>
+        <v>-6.302726894276611</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.321479540898751</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.38322583652819</v>
+        <v>-17.18422370101728</v>
       </c>
       <c r="F65" t="n">
-        <v>6.941299367783968</v>
+        <v>6.565799195370566</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.383522621759247</v>
+        <v>-6.2388324635329</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.390039670221769</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.32482664950289</v>
+        <v>-17.12093550712506</v>
       </c>
       <c r="F66" t="n">
-        <v>6.867064687516732</v>
+        <v>6.504085261689498</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.413238005496356</v>
+        <v>-6.307958131624209</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.463870257399583</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.1990862818927</v>
+        <v>-16.96608599262927</v>
       </c>
       <c r="F67" t="n">
-        <v>6.708162186328263</v>
+        <v>6.336954561944012</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.478476913128469</v>
+        <v>-6.342127400617079</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.537837508227606</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.85220146667135</v>
+        <v>-16.63733450387731</v>
       </c>
       <c r="F68" t="n">
-        <v>6.604402793591727</v>
+        <v>6.235028546782568</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.705361054801391</v>
+        <v>-6.539516163861903</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.607588394640024</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.61414594430753</v>
+        <v>-16.44786593175688</v>
       </c>
       <c r="F69" t="n">
-        <v>6.72387056539166</v>
+        <v>6.361492487409057</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.384373308954091</v>
+        <v>-6.19079797106546</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.670141273647957</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.42332311728497</v>
+        <v>-16.23832309744091</v>
       </c>
       <c r="F70" t="n">
-        <v>6.681947331507865</v>
+        <v>6.314562910493541</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.296371185349622</v>
+        <v>-6.087273250658536</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.721391389169131</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.52446200234084</v>
+        <v>-16.32824171173721</v>
       </c>
       <c r="F71" t="n">
-        <v>6.546487618246252</v>
+        <v>6.171085225970188</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.04422554519535</v>
+        <v>-5.808819864553395</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.761066529188843</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.49200877475826</v>
+        <v>-16.27892629947064</v>
       </c>
       <c r="F72" t="n">
-        <v>6.483184757333437</v>
+        <v>6.106511223271975</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.983318297647323</v>
+        <v>-5.768050436290191</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.78688922369469</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.43982840446768</v>
+        <v>-16.24088982604604</v>
       </c>
       <c r="F73" t="n">
-        <v>6.517838038006131</v>
+        <v>6.156115086943695</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.151329018628855</v>
+        <v>-5.887703990351068</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.799772897431041</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.53071504212362</v>
+        <v>-16.35466190484602</v>
       </c>
       <c r="F74" t="n">
-        <v>6.389457606687811</v>
+        <v>6.042602125507663</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.81187060483835</v>
+        <v>-5.541122293555467</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.798063866277011</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.8407123005341</v>
+        <v>-16.6470587385356</v>
       </c>
       <c r="F75" t="n">
-        <v>6.183175739952069</v>
+        <v>5.827417377267269</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.842514899880173</v>
+        <v>-5.559798299787082</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.781429554369857</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.91589544813352</v>
+        <v>-16.70677795741497</v>
       </c>
       <c r="F76" t="n">
-        <v>6.070464575642212</v>
+        <v>5.723941546929014</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.696822495246107</v>
+        <v>-5.371874653836605</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.746464670185401</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.06029226594785</v>
+        <v>-16.85990654149361</v>
       </c>
       <c r="F77" t="n">
-        <v>6.055039758977094</v>
+        <v>5.706781132826142</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.537455538405281</v>
+        <v>-5.175717920322244</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.690942237008661</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.50637991950577</v>
+        <v>-17.29208985952202</v>
       </c>
       <c r="F78" t="n">
-        <v>6.009816445458132</v>
+        <v>5.621819971492894</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.141978883933664</v>
+        <v>-4.766737828884207</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.61088501580239</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.5981563564115</v>
+        <v>-17.41853913312791</v>
       </c>
       <c r="F79" t="n">
-        <v>6.075945152340023</v>
+        <v>5.715948020701608</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.93481210695501</v>
+        <v>-4.555078054594859</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.504163582359338</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.04954858242002</v>
+        <v>-17.83071174605004</v>
       </c>
       <c r="F80" t="n">
-        <v>5.757465467015449</v>
+        <v>5.407163235994126</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.441457535007755</v>
+        <v>-4.103236039954579</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.370107947609906</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.9018344825087</v>
+        <v>-18.67375742316026</v>
       </c>
       <c r="F81" t="n">
-        <v>5.858731466249859</v>
+        <v>5.484609993772926</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.32568585239921</v>
+        <v>-3.966285179598558</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.20969567687269</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.62709909518807</v>
+        <v>-19.41701847011673</v>
       </c>
       <c r="F82" t="n">
-        <v>5.595849567015842</v>
+        <v>5.254308436300031</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.249080003801519</v>
+        <v>-3.864388498478316</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.028313974937895</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.39886794118553</v>
+        <v>-20.15963416816678</v>
       </c>
       <c r="F83" t="n">
-        <v>5.288272367004489</v>
+        <v>4.94297159000802</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.162608139346395</v>
+        <v>-3.766466579940877</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.830461146251298</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.49094496107579</v>
+        <v>-21.28572400883017</v>
       </c>
       <c r="F84" t="n">
-        <v>5.174035832552154</v>
+        <v>4.819626835762622</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.835215794503435</v>
+        <v>-3.398339029882782</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.62683486968261</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.54986473639463</v>
+        <v>-22.30453437181284</v>
       </c>
       <c r="F85" t="n">
-        <v>5.297546813031026</v>
+        <v>4.925116936930046</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.880854673606086</v>
+        <v>-3.465675321460802</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.4246283534611</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.35808601759181</v>
+        <v>-23.13360237829054</v>
       </c>
       <c r="F86" t="n">
-        <v>4.919978590712919</v>
+        <v>4.568669224277011</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.809602287527667</v>
+        <v>-3.36777295895083</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.236070239337847</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.07028231491591</v>
+        <v>-23.86050480827032</v>
       </c>
       <c r="F87" t="n">
-        <v>4.679439452860703</v>
+        <v>4.331317718902024</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.825833790325825</v>
+        <v>-3.369337441148243</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.068620487326983</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.40207711950475</v>
+        <v>-25.17176089501125</v>
       </c>
       <c r="F88" t="n">
-        <v>4.725004996860351</v>
+        <v>4.40591907468428</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.792270758184454</v>
+        <v>-3.333598800951094</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.931328609782879</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.820847356256</v>
+        <v>-26.59547391770495</v>
       </c>
       <c r="F89" t="n">
-        <v>4.203558191455803</v>
+        <v>3.882736671841977</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.785924827271198</v>
+        <v>-3.347253797130388</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.828277742450014</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.17810899761459</v>
+        <v>-27.95847280862187</v>
       </c>
       <c r="F90" t="n">
-        <v>4.388558211299864</v>
+        <v>4.056306193631192</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.787420863372474</v>
+        <v>-3.35872340724017</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.762478720258345</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.99674866150738</v>
+        <v>-29.75008604255435</v>
       </c>
       <c r="F91" t="n">
-        <v>3.895780542162906</v>
+        <v>3.589269145648541</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.137302639803242</v>
+        <v>-3.706659358937906</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.731574034825658</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.71323252691598</v>
+        <v>-31.44604830163908</v>
       </c>
       <c r="F92" t="n">
-        <v>3.577144408618592</v>
+        <v>3.280978150634618</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.182584621404609</v>
+        <v>-3.798523797967238</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.732635101519282</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.39218104210384</v>
+        <v>-33.10252449676317</v>
       </c>
       <c r="F93" t="n">
-        <v>3.279076326963388</v>
+        <v>2.996154388581887</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.582133818596366</v>
+        <v>-4.216744112383743</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.758954360978167</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.29391671121015</v>
+        <v>-34.99766734010944</v>
       </c>
       <c r="F94" t="n">
-        <v>2.822560421758338</v>
+        <v>2.5428505608884</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.616542648925714</v>
+        <v>-4.235904130295183</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.805079667238457</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.50488939815914</v>
+        <v>-37.22020497280212</v>
       </c>
       <c r="F95" t="n">
-        <v>2.216768469885773</v>
+        <v>1.977539585873891</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.836469733827015</v>
+        <v>-4.448003915202555</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.868202825286852</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.44229770586989</v>
+        <v>-39.13839459451903</v>
       </c>
       <c r="F96" t="n">
-        <v>2.034667631113792</v>
+        <v>1.807064805431434</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.1321910921861</v>
+        <v>-4.755581115213908</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.942445614060842</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.57970306198897</v>
+        <v>-41.24228825306884</v>
       </c>
       <c r="F97" t="n">
-        <v>1.398153160089534</v>
+        <v>1.253291886622845</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.569385642253103</v>
+        <v>-5.194985496384755</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.036274870656599</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.52922877321937</v>
+        <v>-43.18101659263365</v>
       </c>
       <c r="F98" t="n">
-        <v>1.034044373676044</v>
+        <v>0.8822602664858022</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.860085990559865</v>
+        <v>-5.476044723149962</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.142046094821234</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.05383613968782</v>
+        <v>-45.67197781384399</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8599272831177347</v>
+        <v>0.7238857780389594</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.205592105844745</v>
+        <v>-5.772567878635221</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.284258862400446</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.61514039169932</v>
+        <v>-48.26834602310501</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.02586298102991557</v>
+        <v>-0.1495059646941946</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.503068617669052</v>
+        <v>-6.079499729740141</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.440351370083807</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.53573051578789</v>
+        <v>-50.17110349464651</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1654441270803373</v>
+        <v>-0.2594646181379787</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.970604344352128</v>
+        <v>-6.497788490252783</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.662780663863619</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.8638914750851</v>
+        <v>-52.48191214632132</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.5964638614744261</v>
+        <v>-0.6763404556660825</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.281163838552299</v>
+        <v>-6.800075784834134</v>
       </c>
     </row>
   </sheetData>
